--- a/OrdersKomi.xlsx
+++ b/OrdersKomi.xlsx
@@ -549,14 +549,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,10 +886,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -910,10 +910,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="4"/>
       <c r="E6" t="s">
         <v>6</v>
@@ -944,19 +944,19 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1012,7 +1012,7 @@
       <c r="F14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>95</v>
       </c>
       <c r="H14" s="12" t="s">
@@ -1047,7 +1047,7 @@
       <c r="F15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>95</v>
       </c>
       <c r="H15" s="12" t="s">
@@ -1082,7 +1082,7 @@
       <c r="F16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>95</v>
       </c>
       <c r="H16" s="12" t="s">
@@ -1118,7 +1118,7 @@
       <c r="F17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>95</v>
       </c>
       <c r="H17" s="12" t="s">
@@ -1153,7 +1153,7 @@
       <c r="F18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>95</v>
       </c>
       <c r="H18" s="12" t="s">
@@ -1188,7 +1188,7 @@
       <c r="F19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>95</v>
       </c>
       <c r="H19" s="12" t="s">
@@ -1223,7 +1223,7 @@
       <c r="F20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>95</v>
       </c>
       <c r="H20" s="12" t="s">
@@ -1258,7 +1258,7 @@
       <c r="F21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>95</v>
       </c>
       <c r="H21" s="12" t="s">
@@ -1293,7 +1293,7 @@
       <c r="F22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="23" t="s">
         <v>96</v>
       </c>
       <c r="H22" s="12" t="s">
@@ -1328,7 +1328,7 @@
       <c r="F23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="23" t="s">
         <v>96</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -1363,7 +1363,7 @@
       <c r="F24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>96</v>
       </c>
       <c r="H24" s="12" t="s">
@@ -1398,7 +1398,7 @@
       <c r="F25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="23" t="s">
         <v>96</v>
       </c>
       <c r="H25" s="12" t="s">
@@ -1433,7 +1433,7 @@
       <c r="F26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="23" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="12" t="s">
@@ -1468,7 +1468,7 @@
       <c r="F27" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="23" t="s">
         <v>96</v>
       </c>
       <c r="H27" s="12" t="s">
@@ -1503,7 +1503,7 @@
       <c r="F28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="23" t="s">
         <v>96</v>
       </c>
       <c r="H28" s="12" t="s">
@@ -1538,7 +1538,7 @@
       <c r="F29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="23" t="s">
         <v>96</v>
       </c>
       <c r="H29" s="12" t="s">
@@ -1573,7 +1573,7 @@
       <c r="F30" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="23" t="s">
         <v>97</v>
       </c>
       <c r="H30" s="12" t="s">
@@ -1608,7 +1608,7 @@
       <c r="F31" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="23" t="s">
         <v>95</v>
       </c>
       <c r="H31" s="12" t="s">
@@ -1643,7 +1643,7 @@
       <c r="F32" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="23" t="s">
         <v>97</v>
       </c>
       <c r="H32" s="12" t="s">
@@ -1678,7 +1678,7 @@
       <c r="F33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="23" t="s">
         <v>95</v>
       </c>
       <c r="H33" s="12" t="s">
@@ -1713,7 +1713,7 @@
       <c r="F34" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="23" t="s">
         <v>97</v>
       </c>
       <c r="H34" s="12" t="s">
@@ -1748,7 +1748,7 @@
       <c r="F35" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="23" t="s">
         <v>95</v>
       </c>
       <c r="H35" s="12" t="s">
@@ -1783,7 +1783,7 @@
       <c r="F36" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="23" t="s">
         <v>95</v>
       </c>
       <c r="H36" s="12" t="s">
@@ -1818,7 +1818,7 @@
       <c r="F37" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="23" t="s">
         <v>97</v>
       </c>
       <c r="H37" s="12" t="s">
@@ -1853,7 +1853,7 @@
       <c r="F38" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="23" t="s">
         <v>95</v>
       </c>
       <c r="H38" s="12" t="s">
@@ -1888,7 +1888,7 @@
       <c r="F39" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="23" t="s">
         <v>97</v>
       </c>
       <c r="H39" s="12" t="s">
@@ -1923,7 +1923,7 @@
       <c r="F40" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="23" t="s">
         <v>95</v>
       </c>
       <c r="H40" s="12" t="s">
@@ -1958,7 +1958,7 @@
       <c r="F41" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="23" t="s">
         <v>97</v>
       </c>
       <c r="H41" s="12" t="s">
@@ -1993,7 +1993,7 @@
       <c r="F42" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="23" t="s">
         <v>95</v>
       </c>
       <c r="H42" s="12" t="s">
@@ -2028,7 +2028,7 @@
       <c r="F43" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="23" t="s">
         <v>97</v>
       </c>
       <c r="H43" s="12" t="s">
@@ -2063,7 +2063,7 @@
       <c r="F44" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="23" t="s">
         <v>95</v>
       </c>
       <c r="H44" s="12" t="s">
@@ -2098,7 +2098,7 @@
       <c r="F45" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="23" t="s">
         <v>97</v>
       </c>
       <c r="H45" s="12" t="s">
@@ -2133,7 +2133,7 @@
       <c r="F46" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="23" t="s">
         <v>98</v>
       </c>
       <c r="H46" s="12" t="s">
@@ -2168,7 +2168,7 @@
       <c r="F47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="23" t="s">
         <v>97</v>
       </c>
       <c r="H47" s="12" t="s">
@@ -2203,7 +2203,7 @@
       <c r="F48" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="23" t="s">
         <v>98</v>
       </c>
       <c r="H48" s="12" t="s">
@@ -2238,7 +2238,7 @@
       <c r="F49" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="G49" s="23" t="s">
         <v>97</v>
       </c>
       <c r="H49" s="12" t="s">
@@ -2273,7 +2273,7 @@
       <c r="F50" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="G50" s="23" t="s">
         <v>98</v>
       </c>
       <c r="H50" s="12" t="s">
@@ -2308,7 +2308,7 @@
       <c r="F51" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="24" t="s">
+      <c r="G51" s="23" t="s">
         <v>97</v>
       </c>
       <c r="H51" s="12" t="s">
@@ -2343,7 +2343,7 @@
       <c r="F52" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="23" t="s">
         <v>98</v>
       </c>
       <c r="H52" s="12" t="s">
@@ -2378,7 +2378,7 @@
       <c r="F53" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="23" t="s">
         <v>97</v>
       </c>
       <c r="H53" s="12" t="s">
@@ -2413,7 +2413,7 @@
       <c r="F54" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="23" t="s">
         <v>98</v>
       </c>
       <c r="H54" s="12" t="s">

--- a/OrdersKomi.xlsx
+++ b/OrdersKomi.xlsx
@@ -309,13 +309,13 @@
     <t>Поинтфайтинг</t>
   </si>
   <si>
-    <t>Лоу-кик</t>
-  </si>
-  <si>
-    <t>Лайт-контакт</t>
-  </si>
-  <si>
-    <t>Фулл-контакт</t>
+    <t>Лоу кик</t>
+  </si>
+  <si>
+    <t>Лайт контакт</t>
+  </si>
+  <si>
+    <t>Фулл контакт</t>
   </si>
 </sst>
 </file>
